--- a/外部設計関連/外部設計書_トップページ.xlsx
+++ b/外部設計関連/外部設計書_トップページ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650E7B78-12E4-44FB-B8A5-1F975C044B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2987EC6-F0BB-49C9-9219-29A16DCC20CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -333,6 +333,58 @@
     <rPh sb="12" eb="14">
       <t>センタク</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロゴマーク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ナビゲーションメニュー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フッター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nav_ul</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>p_footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>navigationmenu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pagetitle</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>footer</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -969,6 +1021,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>9.</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
             <a:t>フッター</a:t>
@@ -2913,13 +2969,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="10" width="3.625" style="1"/>
+    <col min="11" max="11" width="6.875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -6354,16 +6412,24 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="15">
+        <v>1</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16"/>
+      <c r="L82" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16"/>
@@ -6396,19 +6462,29 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
+      <c r="C83" s="15">
+        <v>2</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
-      <c r="O83" s="16"/>
+      <c r="O83" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="19"/>
@@ -6438,19 +6514,29 @@
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="16"/>
+      <c r="C84" s="15">
+        <v>3</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
-      <c r="H84" s="16"/>
+      <c r="H84" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
-      <c r="L84" s="16"/>
+      <c r="L84" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
-      <c r="O84" s="16"/>
+      <c r="O84" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="19"/>
@@ -6480,7 +6566,9 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
+      <c r="C85" s="15">
+        <v>4</v>
+      </c>
       <c r="D85" s="16"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
@@ -6522,7 +6610,9 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
+      <c r="C86" s="15">
+        <v>5</v>
+      </c>
       <c r="D86" s="16"/>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
@@ -6564,7 +6654,9 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
+      <c r="C87" s="15">
+        <v>6</v>
+      </c>
       <c r="D87" s="16"/>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
@@ -6606,7 +6698,9 @@
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
+      <c r="C88" s="15">
+        <v>7</v>
+      </c>
       <c r="D88" s="16"/>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
@@ -6648,7 +6742,9 @@
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="15"/>
+      <c r="C89" s="15">
+        <v>8</v>
+      </c>
       <c r="D89" s="16"/>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
@@ -6690,19 +6786,29 @@
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="16"/>
+      <c r="C90" s="15">
+        <v>9</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
-      <c r="H90" s="16"/>
+      <c r="H90" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
-      <c r="L90" s="16"/>
+      <c r="L90" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
-      <c r="O90" s="16"/>
+      <c r="O90" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
       <c r="R90" s="19"/>

--- a/外部設計関連/外部設計書_トップページ.xlsx
+++ b/外部設計関連/外部設計書_トップページ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2987EC6-F0BB-49C9-9219-29A16DCC20CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB4A3E3-C79F-4429-B709-3559050EBEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -385,6 +385,77 @@
   </si>
   <si>
     <t>footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>キーワード検索</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>解決/未解決ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミカイケツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_tag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>solved</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>search_button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input:checkbox</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input:text</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input:radio</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input:submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DBなしでよかったですか？</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -912,13 +983,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>126207</xdr:colOff>
+      <xdr:colOff>145257</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>135732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>7143</xdr:colOff>
+      <xdr:colOff>26193</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -935,8 +1006,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="869157" y="1469232"/>
-          <a:ext cx="8548686" cy="5131593"/>
+          <a:off x="888207" y="1469232"/>
+          <a:ext cx="8777286" cy="5131593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2579,22 +2650,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>235266</xdr:colOff>
+      <xdr:colOff>69057</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>126207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>52390</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30">
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D706BC-87D2-4157-B939-169C9802C5B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9BBDB8-0FBF-4CAA-AEF1-62A688C59DF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,8 +2673,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5188266" y="5105400"/>
-          <a:ext cx="774384" cy="257175"/>
+          <a:off x="5250657" y="5079207"/>
+          <a:ext cx="759618" cy="307183"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2632,12 +2703,13 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>7.</a:t>
+            <a:t>6.</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>未解決</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2967,17 +3039,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN112"/>
+  <dimension ref="A1:AP111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="3.625" style="1"/>
-    <col min="11" max="11" width="6.875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="3.625" style="1"/>
+    <col min="1" max="10" width="3.6640625" style="1"/>
+    <col min="11" max="11" width="6.88671875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="3.6640625" style="1"/>
+    <col min="14" max="14" width="5.88671875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -6347,7 +6421,7 @@
       <c r="AM80" s="7"/>
       <c r="AN80" s="7"/>
     </row>
-    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>11</v>
@@ -6409,7 +6483,7 @@
       <c r="AM81" s="20"/>
       <c r="AN81" s="7"/>
     </row>
-    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
       <c r="C82" s="15">
@@ -6458,8 +6532,11 @@
       <c r="AL82" s="17"/>
       <c r="AM82" s="20"/>
       <c r="AN82" s="7"/>
-    </row>
-    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP82" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
       <c r="C83" s="15">
@@ -6510,8 +6587,11 @@
       <c r="AL83" s="17"/>
       <c r="AM83" s="20"/>
       <c r="AN83" s="7"/>
-    </row>
-    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP83" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
       <c r="C84" s="15">
@@ -6563,21 +6643,27 @@
       <c r="AM84" s="20"/>
       <c r="AN84" s="7"/>
     </row>
-    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
       <c r="C85" s="15">
         <v>4</v>
       </c>
-      <c r="D85" s="16"/>
+      <c r="D85" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
-      <c r="H85" s="16"/>
+      <c r="H85" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
-      <c r="L85" s="16"/>
+      <c r="L85" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
       <c r="O85" s="16"/>
@@ -6607,24 +6693,32 @@
       <c r="AM85" s="20"/>
       <c r="AN85" s="7"/>
     </row>
-    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
       <c r="C86" s="15">
         <v>5</v>
       </c>
-      <c r="D86" s="16"/>
+      <c r="D86" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
-      <c r="H86" s="16"/>
+      <c r="H86" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
-      <c r="L86" s="16"/>
+      <c r="L86" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
-      <c r="O86" s="16"/>
+      <c r="O86" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="19"/>
@@ -6651,21 +6745,27 @@
       <c r="AM86" s="20"/>
       <c r="AN86" s="7"/>
     </row>
-    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
       <c r="C87" s="15">
         <v>6</v>
       </c>
-      <c r="D87" s="16"/>
+      <c r="D87" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
-      <c r="H87" s="16"/>
+      <c r="H87" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
-      <c r="L87" s="16"/>
+      <c r="L87" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16"/>
@@ -6695,21 +6795,27 @@
       <c r="AM87" s="20"/>
       <c r="AN87" s="7"/>
     </row>
-    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
       <c r="C88" s="15">
         <v>7</v>
       </c>
-      <c r="D88" s="16"/>
+      <c r="D88" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
-      <c r="H88" s="16"/>
+      <c r="H88" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
-      <c r="L88" s="16"/>
+      <c r="L88" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
       <c r="O88" s="16"/>
@@ -6739,24 +6845,32 @@
       <c r="AM88" s="20"/>
       <c r="AN88" s="7"/>
     </row>
-    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15">
         <v>8</v>
       </c>
-      <c r="D89" s="16"/>
+      <c r="D89" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
-      <c r="H89" s="16"/>
+      <c r="H89" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
-      <c r="L89" s="16"/>
+      <c r="L89" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
-      <c r="O89" s="16"/>
+      <c r="O89" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
       <c r="R89" s="19"/>
@@ -6783,32 +6897,22 @@
       <c r="AM89" s="20"/>
       <c r="AN89" s="7"/>
     </row>
-    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="15">
-        <v>9</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
-      <c r="H90" s="16" t="s">
-        <v>36</v>
-      </c>
+      <c r="H90" s="16"/>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
-      <c r="L90" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="L90" s="16"/>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
-      <c r="O90" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="O90" s="16"/>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
       <c r="R90" s="19"/>
@@ -6835,7 +6939,7 @@
       <c r="AM90" s="20"/>
       <c r="AN90" s="7"/>
     </row>
-    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="14"/>
       <c r="C91" s="15"/>
@@ -6877,7 +6981,7 @@
       <c r="AM91" s="20"/>
       <c r="AN91" s="7"/>
     </row>
-    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
       <c r="C92" s="15"/>
@@ -6919,7 +7023,7 @@
       <c r="AM92" s="20"/>
       <c r="AN92" s="7"/>
     </row>
-    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
@@ -6961,7 +7065,7 @@
       <c r="AM93" s="20"/>
       <c r="AN93" s="7"/>
     </row>
-    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
@@ -7003,7 +7107,7 @@
       <c r="AM94" s="20"/>
       <c r="AN94" s="7"/>
     </row>
-    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="14"/>
       <c r="C95" s="15"/>
@@ -7045,7 +7149,7 @@
       <c r="AM95" s="20"/>
       <c r="AN95" s="7"/>
     </row>
-    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
@@ -7676,88 +7780,46 @@
       <c r="AN110" s="7"/>
     </row>
     <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="6"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="19"/>
-      <c r="L111" s="16"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="19"/>
-      <c r="O111" s="16"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
-      <c r="R111" s="19"/>
-      <c r="S111" s="16"/>
-      <c r="T111" s="19"/>
-      <c r="U111" s="16"/>
-      <c r="V111" s="19"/>
-      <c r="W111" s="16"/>
-      <c r="X111" s="17"/>
-      <c r="Y111" s="17"/>
-      <c r="Z111" s="19"/>
-      <c r="AA111" s="16"/>
-      <c r="AB111" s="17"/>
-      <c r="AC111" s="19"/>
-      <c r="AD111" s="16"/>
-      <c r="AE111" s="17"/>
-      <c r="AF111" s="17"/>
-      <c r="AG111" s="17"/>
-      <c r="AH111" s="17"/>
-      <c r="AI111" s="17"/>
-      <c r="AJ111" s="17"/>
-      <c r="AK111" s="17"/>
-      <c r="AL111" s="17"/>
-      <c r="AM111" s="20"/>
-      <c r="AN111" s="7"/>
-    </row>
-    <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="11"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
-      <c r="Q112" s="12"/>
-      <c r="R112" s="12"/>
-      <c r="S112" s="12"/>
-      <c r="T112" s="12"/>
-      <c r="U112" s="12"/>
-      <c r="V112" s="12"/>
-      <c r="W112" s="12"/>
-      <c r="X112" s="12"/>
-      <c r="Y112" s="12"/>
-      <c r="Z112" s="12"/>
-      <c r="AA112" s="12"/>
-      <c r="AB112" s="12"/>
-      <c r="AC112" s="12"/>
-      <c r="AD112" s="12"/>
-      <c r="AE112" s="12"/>
-      <c r="AF112" s="12"/>
-      <c r="AG112" s="12"/>
-      <c r="AH112" s="12"/>
-      <c r="AI112" s="12"/>
-      <c r="AJ112" s="12"/>
-      <c r="AK112" s="12"/>
-      <c r="AL112" s="12"/>
-      <c r="AM112" s="12"/>
-      <c r="AN112" s="13"/>
+      <c r="A111" s="11"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="12"/>
+      <c r="V111" s="12"/>
+      <c r="W111" s="12"/>
+      <c r="X111" s="12"/>
+      <c r="Y111" s="12"/>
+      <c r="Z111" s="12"/>
+      <c r="AA111" s="12"/>
+      <c r="AB111" s="12"/>
+      <c r="AC111" s="12"/>
+      <c r="AD111" s="12"/>
+      <c r="AE111" s="12"/>
+      <c r="AF111" s="12"/>
+      <c r="AG111" s="12"/>
+      <c r="AH111" s="12"/>
+      <c r="AI111" s="12"/>
+      <c r="AJ111" s="12"/>
+      <c r="AK111" s="12"/>
+      <c r="AL111" s="12"/>
+      <c r="AM111" s="12"/>
+      <c r="AN111" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/外部設計関連/外部設計書_トップページ.xlsx
+++ b/外部設計関連/外部設計書_トップページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB4A3E3-C79F-4429-B709-3559050EBEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76785016-5D10-481B-9515-EA3A2C1ABA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -409,25 +409,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>解決/未解決ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>カイケツ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ミカイケツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>question_tag</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>keyword</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>solved</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -451,11 +433,21 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>memo</t>
+    <t>questions_tag</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>DBなしでよかったですか？</t>
+    <t>solution_label</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>解決/未解決ラベル</t>
+    <rPh sb="0" eb="2">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミカイケツ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3039,7 +3031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP111"/>
+  <dimension ref="A1:AN111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:J3"/>
@@ -6421,7 +6413,7 @@
       <c r="AM80" s="7"/>
       <c r="AN80" s="7"/>
     </row>
-    <row r="81" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14" t="s">
         <v>11</v>
@@ -6483,7 +6475,7 @@
       <c r="AM81" s="20"/>
       <c r="AN81" s="7"/>
     </row>
-    <row r="82" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
       <c r="C82" s="15">
@@ -6532,11 +6524,8 @@
       <c r="AL82" s="17"/>
       <c r="AM82" s="20"/>
       <c r="AN82" s="7"/>
-      <c r="AP82" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
       <c r="C83" s="15">
@@ -6587,11 +6576,8 @@
       <c r="AL83" s="17"/>
       <c r="AM83" s="20"/>
       <c r="AN83" s="7"/>
-      <c r="AP83" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="84" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
       <c r="C84" s="15">
@@ -6643,14 +6629,14 @@
       <c r="AM84" s="20"/>
       <c r="AN84" s="7"/>
     </row>
-    <row r="85" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
       <c r="C85" s="15">
         <v>4</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
@@ -6662,7 +6648,7 @@
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
@@ -6693,14 +6679,14 @@
       <c r="AM85" s="20"/>
       <c r="AN85" s="7"/>
     </row>
-    <row r="86" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
       <c r="C86" s="15">
         <v>5</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
@@ -6712,7 +6698,7 @@
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
@@ -6745,26 +6731,26 @@
       <c r="AM86" s="20"/>
       <c r="AN86" s="7"/>
     </row>
-    <row r="87" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
       <c r="C87" s="15">
         <v>6</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
@@ -6795,14 +6781,14 @@
       <c r="AM87" s="20"/>
       <c r="AN87" s="7"/>
     </row>
-    <row r="88" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
       <c r="C88" s="15">
         <v>7</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
@@ -6814,7 +6800,7 @@
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
@@ -6845,7 +6831,7 @@
       <c r="AM88" s="20"/>
       <c r="AN88" s="7"/>
     </row>
-    <row r="89" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15">
@@ -6897,7 +6883,7 @@
       <c r="AM89" s="20"/>
       <c r="AN89" s="7"/>
     </row>
-    <row r="90" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
@@ -6939,7 +6925,7 @@
       <c r="AM90" s="20"/>
       <c r="AN90" s="7"/>
     </row>
-    <row r="91" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="14"/>
       <c r="C91" s="15"/>
@@ -6981,7 +6967,7 @@
       <c r="AM91" s="20"/>
       <c r="AN91" s="7"/>
     </row>
-    <row r="92" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
       <c r="C92" s="15"/>
@@ -7023,7 +7009,7 @@
       <c r="AM92" s="20"/>
       <c r="AN92" s="7"/>
     </row>
-    <row r="93" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
@@ -7065,7 +7051,7 @@
       <c r="AM93" s="20"/>
       <c r="AN93" s="7"/>
     </row>
-    <row r="94" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
@@ -7107,7 +7093,7 @@
       <c r="AM94" s="20"/>
       <c r="AN94" s="7"/>
     </row>
-    <row r="95" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="14"/>
       <c r="C95" s="15"/>
@@ -7149,7 +7135,7 @@
       <c r="AM95" s="20"/>
       <c r="AN95" s="7"/>
     </row>
-    <row r="96" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>

--- a/外部設計関連/外部設計書_トップページ.xlsx
+++ b/外部設計関連/外部設計書_トップページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76785016-5D10-481B-9515-EA3A2C1ABA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752AAF02-B6E4-46C8-9356-CD4155672376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -3033,7 +3033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -6548,9 +6548,7 @@
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
-      <c r="O83" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="O83" s="16"/>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="19"/>
@@ -6600,9 +6598,7 @@
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
-      <c r="O84" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="O84" s="16"/>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="19"/>
@@ -6854,9 +6850,7 @@
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
-      <c r="O89" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="O89" s="16"/>
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
       <c r="R89" s="19"/>

--- a/外部設計関連/外部設計書_トップページ.xlsx
+++ b/外部設計関連/外部設計書_トップページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752AAF02-B6E4-46C8-9356-CD4155672376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6C6AA8-32DD-4254-B5AE-1BAAE68A8E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -450,6 +450,27 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>トップページ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>御代田里奈</t>
+    <rPh sb="0" eb="5">
+      <t>ミヨタリナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問・相談システム</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -823,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -950,6 +971,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3064,7 +3088,9 @@
       </c>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
+      <c r="N1" s="31" t="s">
+        <v>58</v>
+      </c>
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
@@ -3077,7 +3103,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
+      <c r="Y1" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="Z1" s="31"/>
       <c r="AA1" s="31"/>
       <c r="AB1" s="31"/>
@@ -3112,7 +3140,9 @@
       </c>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="N2" s="41" t="s">
+        <v>60</v>
+      </c>
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
       <c r="Q2" s="41"/>
@@ -3125,7 +3155,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
+      <c r="Y2" s="46">
+        <v>44356</v>
+      </c>
       <c r="Z2" s="41"/>
       <c r="AA2" s="41"/>
       <c r="AB2" s="41"/>

--- a/外部設計関連/外部設計書_トップページ.xlsx
+++ b/外部設計関連/外部設計書_トップページ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6C6AA8-32DD-4254-B5AE-1BAAE68A8E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3317EF13-AC09-4B85-9520-2BF3847D7DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -961,6 +961,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,9 +974,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3061,13 +3061,13 @@
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="3.6640625" style="1"/>
-    <col min="11" max="11" width="6.88671875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="3.6640625" style="1"/>
-    <col min="14" max="14" width="5.88671875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="10" width="3.625" style="1"/>
+    <col min="11" max="11" width="6.875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="3.625" style="1"/>
+    <col min="14" max="14" width="5.875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -3112,10 +3112,10 @@
       <c r="AC1" s="31"/>
       <c r="AD1" s="31"/>
       <c r="AE1" s="31"/>
-      <c r="AF1" s="45" t="s">
+      <c r="AF1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="45"/>
+      <c r="AG1" s="46"/>
       <c r="AH1" s="38"/>
       <c r="AI1" s="38"/>
       <c r="AJ1" s="38"/>
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="41"/>
-      <c r="Y2" s="46">
+      <c r="Y2" s="42">
         <v>44356</v>
       </c>
       <c r="Z2" s="41"/>
@@ -3164,17 +3164,17 @@
       <c r="AC2" s="41"/>
       <c r="AD2" s="41"/>
       <c r="AE2" s="41"/>
-      <c r="AF2" s="42" t="s">
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="44"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>

--- a/外部設計関連/外部設計書_トップページ.xlsx
+++ b/外部設計関連/外部設計書_トップページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3317EF13-AC09-4B85-9520-2BF3847D7DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032C8480-A1F0-4DB1-8577-58068A0F44AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2345,136 +2345,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>59530</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60150AD-9E9E-4C7B-A30B-04F44BC370F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4988718" y="1952624"/>
-          <a:ext cx="1250157" cy="297657"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>質問投稿ページ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>130970</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016FC3DF-23AF-445D-982F-24FD2E4D6E02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6977064" y="1964532"/>
-          <a:ext cx="976312" cy="273842"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>マイページ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>107158</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>83345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
@@ -2482,117 +2356,218 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>154782</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="グループ化 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B18407-EAD6-455D-8097-70175EC1CB7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5208733F-F7E8-454A-8647-D9CFB23DB039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8596314" y="1988345"/>
-          <a:ext cx="785812" cy="261937"/>
+          <a:off x="3698875" y="1952624"/>
+          <a:ext cx="6230938" cy="297658"/>
+          <a:chOff x="3698875" y="1952624"/>
+          <a:chExt cx="6230938" cy="297658"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログアウト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A832FE-FDFE-4736-94C7-A08E06EDE49C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3405187" y="1988344"/>
-          <a:ext cx="1119188" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>トップページ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60150AD-9E9E-4C7B-A30B-04F44BC370F0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5472905" y="1952624"/>
+            <a:ext cx="1266032" cy="297657"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>質問投稿ページ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016FC3DF-23AF-445D-982F-24FD2E4D6E02}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7489033" y="1964532"/>
+            <a:ext cx="992187" cy="273842"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>マイページ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B18407-EAD6-455D-8097-70175EC1CB7D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9132096" y="1988345"/>
+            <a:ext cx="797717" cy="261937"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ログアウト</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A832FE-FDFE-4736-94C7-A08E06EDE49C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3698875" y="1988344"/>
+            <a:ext cx="1301750" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>トップページ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3057,7 +3032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>

--- a/外部設計関連/外部設計書_トップページ.xlsx
+++ b/外部設計関連/外部設計書_トップページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032C8480-A1F0-4DB1-8577-58068A0F44AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFDAE86-181F-4F96-AAC9-7A4C6D8ED093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2369,8 +2369,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3698875" y="1952624"/>
-          <a:ext cx="6230938" cy="297658"/>
+          <a:off x="3681412" y="1952624"/>
+          <a:ext cx="6200776" cy="297658"/>
           <a:chOff x="3698875" y="1952624"/>
           <a:chExt cx="6230938" cy="297658"/>
         </a:xfrm>
@@ -3032,7 +3032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
